--- a/EvaluationResults/RQ1/Baseline1-DD-5%-result.xlsx
+++ b/EvaluationResults/RQ1/Baseline1-DD-5%-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia WorkSpace/serverless misconfiguration/LLM新方法设计/AllCode/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C76096F-14C6-0045-A45E-8CD0FBA7CABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D6F596-ABE1-3849-AA03-1912322934A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1070,7 +1070,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1109,6 +1109,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1133,12 +1141,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1169,8 +1180,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1485,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J116" sqref="J116:J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -1574,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <f t="shared" ref="J2:J39" si="0">H2-I2</f>
+        <f t="shared" ref="J2:J40" si="0">H2-I2</f>
         <v>0</v>
       </c>
       <c r="K2" s="5">
@@ -3246,7 +3261,8 @@
         <v>1</v>
       </c>
       <c r="J40" s="4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K40" s="6">
         <v>3</v>
@@ -6396,12 +6412,12 @@
         <v>308</v>
       </c>
       <c r="I112" s="8">
-        <f t="shared" si="8"/>
+        <f>SUM(I2:I111)</f>
         <v>218</v>
       </c>
       <c r="J112" s="4">
         <f t="shared" si="8"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K112" s="4">
         <f t="shared" si="8"/>
@@ -6428,7 +6444,7 @@
       <c r="I116" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="J116" s="1">
+      <c r="J116" s="10">
         <f>I112/(I112+K112)</f>
         <v>0.19055944055944055</v>
       </c>
@@ -6437,27 +6453,27 @@
       <c r="I117" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="J117" s="1">
+      <c r="J117" s="10">
         <f>I112/(I112+J112)</f>
-        <v>0.71009771986970682</v>
+        <v>0.70779220779220775</v>
       </c>
     </row>
     <row r="118" spans="9:12" ht="18" customHeight="1">
       <c r="I118" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="J118" s="1">
+      <c r="J118" s="10">
         <f>2*((J116*J117)/(J116+J117))</f>
-        <v>0.30048242591316332</v>
+        <v>0.30027548209366389</v>
       </c>
     </row>
     <row r="119" spans="9:12" ht="18" customHeight="1">
       <c r="I119" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="J119" s="1">
+      <c r="J119" s="10">
         <f>(I112+L112)/(I112+J112+K112+L112)</f>
-        <v>0.77010192525481314</v>
+        <v>0.76992753623188404</v>
       </c>
     </row>
   </sheetData>

--- a/EvaluationResults/RQ1/Baseline1-DD-5%-result.xlsx
+++ b/EvaluationResults/RQ1/Baseline1-DD-5%-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia WorkSpace/serverless misconfiguration/LLM新方法设计/AllCode/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D6F596-ABE1-3849-AA03-1912322934A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C83A18-2FFA-3E4E-895C-2842114A9B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="llama" sheetId="1" r:id="rId1"/>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J116" sqref="J116:J119"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
